--- a/tables/crop_classifications/IT_EMR_crop_classification_final.xlsx
+++ b/tables/crop_classifications/IT_EMR_crop_classification_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4DA4C5-DFFE-4C5B-B7C9-1D1B7F826164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2392480-8ECD-49E7-93FB-1FA7F737AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="3492" windowWidth="13824" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="2313">
   <si>
     <t>crop_code</t>
   </si>
@@ -6914,6 +6914,63 @@
   </si>
   <si>
     <t>Yacon</t>
+  </si>
+  <si>
+    <t>SILFIO (PIANTA DI COPPO)  Silphium perfoliatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDO MARIANO </t>
+  </si>
+  <si>
+    <t>CAMELINA o DORELLA  COLTIVATA</t>
+  </si>
+  <si>
+    <t>RIBES BIANCO (UVA SPINA)</t>
+  </si>
+  <si>
+    <t>YACON (patata yacon o carota dolce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASCOLO CON PRATICHE TRADIZIONALI </t>
+  </si>
+  <si>
+    <t>SILLIUM (COPPO PLANT) Silphium perfoliatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIAN CARDUS </t>
+  </si>
+  <si>
+    <t>CAMELINE or CULTIVATED DORELLA</t>
+  </si>
+  <si>
+    <t>WHITE CURRANT (GOOSEBERRY)</t>
+  </si>
+  <si>
+    <t>YACON (yacon potato or sweet carrot)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAZING WITH TRADITIONAL PRACTICES </t>
+  </si>
+  <si>
+    <t>SILBERBLUME (KOPFBLUME) Silphium perfoliatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIENKARTUS </t>
+  </si>
+  <si>
+    <t>KAMELINE oder KULTIVIERTE DORELLA</t>
+  </si>
+  <si>
+    <t>WEISSE JOHANNISBEERE (STACHELBEERE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEIDEHALTUNG MIT TRADITIONELLEN METHODEN </t>
+  </si>
+  <si>
+    <t>energy_crops</t>
+  </si>
+  <si>
+    <t>currants</t>
   </si>
 </sst>
 </file>
@@ -6932,6 +6989,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -6986,7 +7044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6994,6 +7052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7296,11 +7355,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F461" sqref="F461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20334,6 +20393,144 @@
         <v>16</v>
       </c>
     </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A452" s="5">
+        <v>736</v>
+      </c>
+      <c r="B452" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C452" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D452" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F452" t="s">
+        <v>2300</v>
+      </c>
+      <c r="G452" t="s">
+        <v>2311</v>
+      </c>
+      <c r="H452">
+        <v>3304010000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A453" s="5">
+        <v>326</v>
+      </c>
+      <c r="B453" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C453" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F453" t="s">
+        <v>2301</v>
+      </c>
+      <c r="G453" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H453">
+        <v>3301061300</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A454" s="5">
+        <v>998</v>
+      </c>
+      <c r="B454" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C454" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D454" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F454" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G454" t="s">
+        <v>391</v>
+      </c>
+      <c r="H454">
+        <v>3301061500</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A455" s="5">
+        <v>480</v>
+      </c>
+      <c r="B455" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C455" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D455" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F455" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G455" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H455">
+        <v>3303020600</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B456" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C456" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D456" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F456" t="s">
+        <v>2304</v>
+      </c>
+      <c r="G456" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H456">
+        <v>3301290000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A457" s="5">
+        <v>218</v>
+      </c>
+      <c r="B457" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C457" t="s">
+        <v>2310</v>
+      </c>
+      <c r="D457" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F457" t="s">
+        <v>2305</v>
+      </c>
+      <c r="G457" t="s">
+        <v>134</v>
+      </c>
+      <c r="H457">
+        <v>3302000000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I451" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tables/crop_classifications/IT_EMR_crop_classification_final.xlsx
+++ b/tables/crop_classifications/IT_EMR_crop_classification_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2392480-8ECD-49E7-93FB-1FA7F737AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4DA4C5-DFFE-4C5B-B7C9-1D1B7F826164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="3492" windowWidth="13824" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="2313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="2294">
   <si>
     <t>crop_code</t>
   </si>
@@ -6914,63 +6914,6 @@
   </si>
   <si>
     <t>Yacon</t>
-  </si>
-  <si>
-    <t>SILFIO (PIANTA DI COPPO)  Silphium perfoliatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARDO MARIANO </t>
-  </si>
-  <si>
-    <t>CAMELINA o DORELLA  COLTIVATA</t>
-  </si>
-  <si>
-    <t>RIBES BIANCO (UVA SPINA)</t>
-  </si>
-  <si>
-    <t>YACON (patata yacon o carota dolce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASCOLO CON PRATICHE TRADIZIONALI </t>
-  </si>
-  <si>
-    <t>SILLIUM (COPPO PLANT) Silphium perfoliatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIAN CARDUS </t>
-  </si>
-  <si>
-    <t>CAMELINE or CULTIVATED DORELLA</t>
-  </si>
-  <si>
-    <t>WHITE CURRANT (GOOSEBERRY)</t>
-  </si>
-  <si>
-    <t>YACON (yacon potato or sweet carrot)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAZING WITH TRADITIONAL PRACTICES </t>
-  </si>
-  <si>
-    <t>SILBERBLUME (KOPFBLUME) Silphium perfoliatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIENKARTUS </t>
-  </si>
-  <si>
-    <t>KAMELINE oder KULTIVIERTE DORELLA</t>
-  </si>
-  <si>
-    <t>WEISSE JOHANNISBEERE (STACHELBEERE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEIDEHALTUNG MIT TRADITIONELLEN METHODEN </t>
-  </si>
-  <si>
-    <t>energy_crops</t>
-  </si>
-  <si>
-    <t>currants</t>
   </si>
 </sst>
 </file>
@@ -6989,7 +6932,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -7044,7 +6986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7052,7 +6994,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7355,11 +7296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F461" sqref="F461"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20393,144 +20334,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A452" s="5">
-        <v>736</v>
-      </c>
-      <c r="B452" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C452" t="s">
-        <v>2306</v>
-      </c>
-      <c r="D452" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F452" t="s">
-        <v>2300</v>
-      </c>
-      <c r="G452" t="s">
-        <v>2311</v>
-      </c>
-      <c r="H452">
-        <v>3304010000</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A453" s="5">
-        <v>326</v>
-      </c>
-      <c r="B453" t="s">
-        <v>2295</v>
-      </c>
-      <c r="C453" t="s">
-        <v>2307</v>
-      </c>
-      <c r="D453" t="s">
-        <v>2301</v>
-      </c>
-      <c r="F453" t="s">
-        <v>2301</v>
-      </c>
-      <c r="G453" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H453">
-        <v>3301061300</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A454" s="5">
-        <v>998</v>
-      </c>
-      <c r="B454" t="s">
-        <v>2296</v>
-      </c>
-      <c r="C454" t="s">
-        <v>2308</v>
-      </c>
-      <c r="D454" t="s">
-        <v>2302</v>
-      </c>
-      <c r="F454" t="s">
-        <v>2302</v>
-      </c>
-      <c r="G454" t="s">
-        <v>391</v>
-      </c>
-      <c r="H454">
-        <v>3301061500</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A455" s="5">
-        <v>480</v>
-      </c>
-      <c r="B455" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C455" t="s">
-        <v>2309</v>
-      </c>
-      <c r="D455" t="s">
-        <v>2303</v>
-      </c>
-      <c r="F455" t="s">
-        <v>2303</v>
-      </c>
-      <c r="G455" t="s">
-        <v>2312</v>
-      </c>
-      <c r="H455">
-        <v>3303020600</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B456" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C456" t="s">
-        <v>2177</v>
-      </c>
-      <c r="D456" t="s">
-        <v>2304</v>
-      </c>
-      <c r="F456" t="s">
-        <v>2304</v>
-      </c>
-      <c r="G456" t="s">
-        <v>1854</v>
-      </c>
-      <c r="H456">
-        <v>3301290000</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A457" s="5">
-        <v>218</v>
-      </c>
-      <c r="B457" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C457" t="s">
-        <v>2310</v>
-      </c>
-      <c r="D457" t="s">
-        <v>2305</v>
-      </c>
-      <c r="F457" t="s">
-        <v>2305</v>
-      </c>
-      <c r="G457" t="s">
-        <v>134</v>
-      </c>
-      <c r="H457">
-        <v>3302000000</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:I451" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
